--- a/assets/cms/format/Contoh_Format_user.xlsx
+++ b/assets/cms/format/Contoh_Format_user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/848a37d047909249/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{0BC610AA-7BFB-44EC-B729-F37E6813CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C97077-2ECD-40DC-9CA6-3958933DADCB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB000953-8D48-42C6-AF08-5E087AF5699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84DA7F21-7BD4-47C8-A34F-342FDF9DECF8}"/>
   </bookViews>
@@ -461,13 +461,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
@@ -510,14 +511,14 @@
       <c r="B2" s="1">
         <v>2002</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
         <v>12345</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -551,7 +552,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5820CE0D-83C2-4715-AE7F-B44BA176E23C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5820CE0D-83C2-4715-AE7F-B44BA176E23C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/assets/cms/format/Contoh_Format_user.xlsx
+++ b/assets/cms/format/Contoh_Format_user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dapenbukopin\assets\cms\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB000953-8D48-42C6-AF08-5E087AF5699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0601DB50-153E-4738-A3CE-AB40A6740BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84DA7F21-7BD4-47C8-A34F-342FDF9DECF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nama</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>nik</t>
   </si>
   <si>
     <t>pegawai</t>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AAC446-A263-4E35-8FD9-8FF37C32FF57}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +472,7 @@
     <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,39 +486,36 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>2002</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45569</v>
       </c>
       <c r="G2" s="3">
         <v>45569</v>
@@ -529,14 +523,11 @@
       <c r="H2" s="3">
         <v>45569</v>
       </c>
-      <c r="I2" s="3">
-        <v>45569</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -545,9 +536,8 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" t="s">
-        <v>14</v>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
